--- a/Automation plan for Upload Feature.xlsx
+++ b/Automation plan for Upload Feature.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Geo Exercise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BD103FB-996A-4A1B-AF9B-4958AC439A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864DD51D-B74B-411F-9AC2-3ADE312DA6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{18B4A29E-49D5-44E1-BA82-D05361446574}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{18B4A29E-49D5-44E1-BA82-D05361446574}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Auto plan" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,37 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
-  <si>
-    <t>Test objective</t>
-  </si>
-  <si>
-    <t>Automation the Upload features</t>
-  </si>
-  <si>
-    <t>Assumptions</t>
-  </si>
-  <si>
-    <t>Have all the TCs of Upload Features for manual tests before</t>
-  </si>
-  <si>
-    <t>Test plan for Regression test on Upload Features from scratch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Test Plan is a detailed document that describes the test strategy, objectives, schedule, estimation, deliverables, and resources required to perform testing </t>
-  </si>
-  <si>
-    <t>Test obj, test approach, test tools, test environment, test schedules and team responsibilities and composition. It should also list the risks foreseen in the project and their respective levels so that testing can be prioritized by risk</t>
-  </si>
-  <si>
-    <t>Testplan for auto</t>
-  </si>
-  <si>
-    <t>Testplan for a feature</t>
-  </si>
-  <si>
-    <t>Automation obj</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
   <si>
     <t>Product(s)</t>
   </si>
@@ -151,9 +120,6 @@
 </t>
   </si>
   <si>
-    <t>Phase 4: Maintainance and improve plan</t>
-  </si>
-  <si>
     <t>Running process and report</t>
   </si>
   <si>
@@ -163,9 +129,6 @@
     <t>Keep scripts up to date</t>
   </si>
   <si>
-    <t>Improve</t>
-  </si>
-  <si>
     <t>Stability</t>
   </si>
   <si>
@@ -191,11 +154,6 @@
   </si>
   <si>
     <t>Base on project needs, integrate the scripts to others</t>
-  </si>
-  <si>
-    <t>Stable or changed features (If the features will be changed in the roadmap, should not auto it, focus on stable features that give value)
-New support platforms (if product support more platforms so notice them in the Test tool selection to scale in the future)
-Priority of components/features</t>
   </si>
   <si>
     <t>Roadmap &amp; overall</t>
@@ -249,65 +207,85 @@
     <t>QA Data</t>
   </si>
   <si>
+    <t>Release schedule is tight and affect the auto plan</t>
+  </si>
+  <si>
+    <t>ROI of auto plan compared with manual before</t>
+  </si>
+  <si>
+    <t>Training or hiring plan to adapt the auto tasks</t>
+  </si>
+  <si>
+    <t>Scripting</t>
+  </si>
+  <si>
+    <t>Implement all scripts needed to automate the features</t>
+  </si>
+  <si>
+    <t>Execute process for define scripts (daily, release, impact…)</t>
+  </si>
+  <si>
+    <t>Results and report auto status</t>
+  </si>
+  <si>
+    <t>Keep running and reports for product maintaince</t>
+  </si>
+  <si>
+    <t>Overview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upload Feature is 100% manual currently and we need a auto plan to automate it.
+As we don't have any requirement for this product so this plan is made based on my assumption data
+</t>
+  </si>
+  <si>
+    <t>Auto schedule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test structure and all common libs needed that apply for whole project
+</t>
+  </si>
+  <si>
+    <t>Plan for automation items and schedule
+Test objective
+Team responsibilities and composition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phase 1: Analysis </t>
+  </si>
+  <si>
     <t xml:space="preserve">Review these items:
-Manual TCs list and its quality to see if they are ready for auto or not
+Manual TCs list of Upload feature and its quality to see if they are ready for auto or not
 Current test coverage
 Regression time for each test cycle
 </t>
   </si>
   <si>
-    <t>Release schedule is tight and affect the auto plan</t>
-  </si>
-  <si>
-    <t>ROI of auto plan compared with manual before</t>
-  </si>
-  <si>
-    <t>Training or hiring plan to adapt the auto tasks</t>
-  </si>
-  <si>
-    <t>Scripting</t>
-  </si>
-  <si>
-    <t>Implement all scripts needed to automate the features</t>
-  </si>
-  <si>
-    <t>Execute process for define scripts (daily, release, impact…)</t>
-  </si>
-  <si>
-    <t>Results and report auto status</t>
-  </si>
-  <si>
-    <t>Keep running and reports for product maintaince</t>
-  </si>
-  <si>
-    <t>Overview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upload Feature is 100% manual currently and we need a auto plan to automate it.
-As we don't have any requirement for this product so this plan is made based on my assumption data
-</t>
-  </si>
-  <si>
-    <t>Auto schedule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test structure and all common libs needed that apply for whole project
-</t>
-  </si>
-  <si>
-    <t>Plan for automation items and schedule
-Test objective
-Team responsibilities and composition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phase 1: Analysis </t>
+    <t>'Upload feature' is stable enough? (If this feature will be changed in the roadmap, should not auto it, focus on stable features/TCs that give value)
+New support platforms (if this feature will support more platforms so notice them in the Test tool selection to scale in the future)
+Priority of this feature and its components</t>
+  </si>
+  <si>
+    <t>Objective</t>
+  </si>
+  <si>
+    <t>Replace the manual tests for "Upload features" by automation to reduce the effort from QA team and increase the quality</t>
+  </si>
+  <si>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>Improvement</t>
+  </si>
+  <si>
+    <t>Phase 4: Maintainance and improvement plan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,8 +301,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,6 +329,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -445,38 +443,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -486,20 +454,56 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -814,528 +818,480 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D015A5D9-A231-44AA-B904-37ECF4055A04}">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3457630-9A91-4A9B-A482-8132BFA2E12B}">
+  <dimension ref="A3:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" style="1" customWidth="1"/>
-    <col min="2" max="2" width="79.69921875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.796875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="69" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3457630-9A91-4A9B-A482-8132BFA2E12B}">
-  <dimension ref="A3:E37"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.09765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.19921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="75.09765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.19921875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="12.09765625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16" style="6" customWidth="1"/>
+    <col min="3" max="3" width="22.19921875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="75.09765625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="37.19921875" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="8.796875" style="6"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+    </row>
+    <row r="6" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="69" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>1</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="69" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>2</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>3</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="69" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>4</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>5</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>6</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>7</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="69" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>1</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>2</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>3</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="18"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>1</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>2</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="17" t="s">
+      <c r="D26" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>3</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>4</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>5</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>6</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="16"/>
+    </row>
+    <row r="32" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>1</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="69" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="D33" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="10"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>2</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="69" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>3</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="10"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>4</v>
+      </c>
+      <c r="B36" s="12"/>
+      <c r="C36" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="10"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>5</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="69" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="D37" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="10"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
         <v>6</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-    </row>
-    <row r="18" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
-    </row>
-    <row r="19" spans="1:5" ht="69" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>2</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>3</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="13"/>
-    </row>
-    <row r="24" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>1</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>2</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>3</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>4</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>5</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>6</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="16"/>
-    </row>
-    <row r="31" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="B38" s="13"/>
+      <c r="C38" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="13"/>
-    </row>
-    <row r="32" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>1</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="D38" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>2</v>
-      </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>3</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>4</v>
-      </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>5</v>
-      </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>6</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E37" s="2"/>
+      <c r="E38" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B28:B29"/>
+  <mergeCells count="20">
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A31:E31"/>
     <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="E21:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
